--- a/outputs/g__C941/o__Bacteroidaceae_pruned123_g__C941_g__Ruminococcus_combined.xlsx
+++ b/outputs/g__C941/o__Bacteroidaceae_pruned123_g__C941_g__Ruminococcus_combined.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/MLDSP-desktop/outputs/g__C941/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E99045-0D9D-564A-8F13-7EA9418B83F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C98F1B-BD08-FF42-9B76-2B88B0ACC188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="460" windowWidth="28040" windowHeight="15880" activeTab="1" xr2:uid="{877E6439-4973-2747-9296-D8B4BB6EA8DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{877E6439-4973-2747-9296-D8B4BB6EA8DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="g__C941-1-vs-1-LS" sheetId="1" r:id="rId1"/>
-    <sheet name="g__Ruminococcus-1-vs-1-LS" sheetId="2" r:id="rId2"/>
+    <sheet name="g_C941-1vs1-leastsquare" sheetId="1" r:id="rId1"/>
+    <sheet name="g_C941-1vs1-squaredhinge" sheetId="3" r:id="rId2"/>
+    <sheet name="g_Ruminococcus-1vs1-leastsquare" sheetId="2" r:id="rId3"/>
+    <sheet name="g_Ruminococcus-1vs1-squarehinge" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="14">
   <si>
     <t>prediction</t>
   </si>
@@ -63,12 +65,27 @@
   <si>
     <t>majority vote prediction</t>
   </si>
+  <si>
+    <t>f(x): f__UBA932 vs f__Muribaculaceae</t>
+  </si>
+  <si>
+    <t>f(x): f__UBA932 vs f__Bacteroidaceae</t>
+  </si>
+  <si>
+    <t>f(x): f__Muribaculaceae vs f__Bacteroidaceae</t>
+  </si>
+  <si>
+    <t>info: g__Ruminococcus_E -&gt; NA, d = 0.1, threshold |f(x)| by 0.8</t>
+  </si>
+  <si>
+    <t>info: g__C941 -&gt; f__Muribaculaceae, d = 0.1, threshold |f(x)| by 0.8, f__Bacteroidaceae vs f__UBA932 back to clade-exclusion problem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +95,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -102,10 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +152,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D21FB6-D537-2C4B-AAFC-3D7D64B0B68C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="6781800"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,844 +515,1701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3FA387-D2F8-0C4A-85F3-945F95FDF908}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>0.98312361124851755</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>1.2032491154961527</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
         <v>-0.8455315461918218</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>0.9925929760496297</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.86425431250765605</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
         <v>-0.94838998597738922</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>1.0201622791683373</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.73494686971336698</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1.0826036865960589</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1.0018247171810017</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0338681063132391</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.96612663138458288</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0.91048080512171037</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0533244166058253</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-0.93019384659099202</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0.88211110073134691</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.007591110680119</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.81538259255134093</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>1.0484065801541798</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0051472770910053</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.1525147647177363</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>0.97253124970140448</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0861343191013013</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1.0686986823054525</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>0.9753228719551803</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0130924490736302</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-0.90556865755694815</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>0.99034357913022752</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.2228962644935493</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.83872189784540296</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>1.0063632851199911</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.75184798016231591</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-0.89752960711396668</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>0.84680765563795468</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.89736060901916392</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-0.82645603454852434</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>1.0294283908766149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.69256385611569948</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1.1350987082959954</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0.9248672033616554</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.34752016582103362</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1.0626911029016988</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>1.0217232762696753</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.0917391876926299</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1.3200968067940337</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>0.95748697252152848</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.89467623841520982</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-1.0032370826862795</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>0.90591545319792033</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.0812549835185923</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1.0751953185518559</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>0.87389747186964861</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.028597492682966</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-0.9287273045624147</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>1.0640295297275753</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.1093094531516918</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1.0988114469717445</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>1.0342932102517866</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.93349188911554659</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1.1808791957225715</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>0.96903882575468092</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.97327631982761798</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-0.82266583103583457</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>0.98355601611623023</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.71326644387214788</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-0.90842579895155495</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>0.97336284572964438</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.99707721412932315</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-1.2317861987980407</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>1.0244466194860742</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.94151102599704917</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.92105231985207681</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>0.93976528153211358</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.74570903367390606</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-0.93740782464399075</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>0.97867957535534345</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.96774082522675453</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-0.93163416353674222</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>0.90350454652695955</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.78444439324924753</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-0.90611120258594369</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>1.0445595348258543</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.1268798429138336</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-1.1656755422822727</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>0.97158115984703564</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.62910052290634066</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-0.89681912620553561</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>1.139090328137871</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.97200869438797977</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-0.94424958365594946</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>0.93521838967068049</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.1003304649306873</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-0.68753868467415913</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>1.086352836953167</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.86806397080470887</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-0.92458994076913115</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>0.92703179776379141</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.0130920637934162</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-0.7547864708401022</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>0.99746142877903488</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.2389211607243</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-0.62973765320894159</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>1.1021566273587471</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.2505004277423852</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-1.1132792891742085</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3E0D13-4E3B-644A-9FA9-5581B85AD31D}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>-1.0949349551012431</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0.73494686971336698</v>
+      <c r="D4" s="2">
+        <v>-0.75990187072986448</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>-1.0826036865960589</v>
+      <c r="G4" s="2">
+        <v>1.1353794725102131</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1.0018247171810017</v>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>-1.1593654757885909</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>1.0338681063132391</v>
+      <c r="D5" s="2">
+        <v>-1.195478546947728</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>-0.96612663138458288</v>
+      <c r="G5" s="2">
+        <v>0.99718670322832326</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.91048080512171037</v>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>-1.612248042020028</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1.0533244166058253</v>
+      <c r="D6" s="2">
+        <v>-0.78397760024979302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>-0.93019384659099202</v>
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.4493483951666579</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.88211110073134691</v>
+      <c r="J6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>-0.76403064243220209</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1.007591110680119</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1.4354727771825859</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7">
-        <v>-0.81538259255134093</v>
+      <c r="G7" s="2">
+        <v>0.36151106031252522</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1.0484065801541798</v>
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>-0.92433255816350268</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>1.0051472770910053</v>
+      <c r="D8" s="2">
+        <v>-1.223242100435888</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>-1.1525147647177363</v>
+      <c r="G8" s="2">
+        <v>0.97819309648582675</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0.97253124970140448</v>
+      <c r="J8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>-1.9626401476643129</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>1.0861343191013013</v>
+      <c r="D9" s="2">
+        <v>-1.672465578042476</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>-1.0686986823054525</v>
+      <c r="G9" s="2">
+        <v>1.2778012088479069</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0.9753228719551803</v>
+      <c r="J9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>-1.271914558164615</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1.0130924490736302</v>
+      <c r="D10" s="2">
+        <v>-0.91898082319668761</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10">
-        <v>-0.90556865755694815</v>
+      <c r="G10" s="2">
+        <v>1.0728633461977941</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.99034357913022752</v>
+      <c r="J10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>-1.166655973267237</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>1.2228962644935493</v>
+      <c r="D11" s="2">
+        <v>-0.88328519015443885</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>-0.83872189784540296</v>
+      <c r="G11" s="2">
+        <v>1.6141774012215799</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1.0063632851199911</v>
+      <c r="J11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>-1.526936553393591</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0.75184798016231591</v>
+      <c r="D12" s="2">
+        <v>-1.352418319222882</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>-0.89752960711396668</v>
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.2399751230772049</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.84680765563795468</v>
+      <c r="J12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>-0.53062303251630816</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0.89736060901916392</v>
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.80793442953381522</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13">
-        <v>-0.82645603454852434</v>
+      <c r="G13" s="2">
+        <v>0.54817032407849409</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1.0294283908766149</v>
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>-0.60869950411154861</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.69256385611569948</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.74089064134284133</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>-1.1350987082959954</v>
+      <c r="G14" s="2">
+        <v>0.75331004174177874</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.9248672033616554</v>
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>-0.84921571972223342</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0.34752016582103362</v>
+      <c r="D15" s="2">
+        <v>-0.80753006529311244</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>-1.0626911029016988</v>
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.92604556466007526</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1.0217232762696753</v>
+      <c r="J15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>-1.561969319375714</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1.0917391876926299</v>
+      <c r="D16" s="2">
+        <v>-0.80304107656849233</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>-1.3200968067940337</v>
+      <c r="G16" s="2">
+        <v>1.1978178361852321</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.95748697252152848</v>
+      <c r="J16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>-1.4559458878409259</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0.89467623841520982</v>
+      <c r="D17" s="2">
+        <v>-1.0343312879640369</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G17">
-        <v>-1.0032370826862795</v>
+      <c r="G17" s="2">
+        <v>1.323718116540191</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.90591545319792033</v>
+      <c r="J17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>-1.638262197742298</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>1.0812549835185923</v>
+      <c r="D18" s="2">
+        <v>-1.196541468841378</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>-1.0751953185518559</v>
+      <c r="G18" s="2">
+        <v>1.269825692284684</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.87389747186964861</v>
+      <c r="J18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>-1.4892842888678799</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>1.028597492682966</v>
+      <c r="D19" s="2">
+        <v>-1.074540436776968</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>-0.9287273045624147</v>
+      <c r="G19" s="2">
+        <v>1.292799344264661</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1.0640295297275753</v>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>-0.80562999731509555</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>1.1093094531516918</v>
+      <c r="D20" s="2">
+        <v>-0.4358470419041845</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>-1.0988114469717445</v>
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.377162487610784</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1.0342932102517866</v>
+      <c r="J20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>-1.4620681717373709</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0.93349188911554659</v>
+      <c r="D21" s="2">
+        <v>-1.3543029306821821</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>-1.1808791957225715</v>
+      <c r="G21" s="2">
+        <v>1.2604119151625961</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.96903882575468092</v>
+      <c r="J21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>-1.3953437818776819</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0.97327631982761798</v>
+      <c r="D22" s="2">
+        <v>-1.066858098018175</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>-0.82266583103583457</v>
+      <c r="G22" s="2">
+        <v>1.7675483793582549</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.98355601611623023</v>
+      <c r="J22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>-0.8429259912574053</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23">
-        <v>0.71326644387214788</v>
+      <c r="D23" s="2">
+        <v>-1.1172305054031719</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>-0.90842579895155495</v>
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.47938035892284669</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.97336284572964438</v>
+        <v>4</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>-0.80764490088980256</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>0.99707721412932315</v>
+      <c r="D24" s="2">
+        <v>-0.82025733361941466</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24">
-        <v>-1.2317861987980407</v>
+      <c r="G24" s="2">
+        <v>0.99045149432751778</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1.0244466194860742</v>
+      <c r="J24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>-0.89747220173602282</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>0.94151102599704917</v>
+      <c r="D25" s="2">
+        <v>-0.36952602526665868</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>-0.92105231985207681</v>
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1.2629173152289319</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.93976528153211358</v>
+      <c r="J25" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>-1.0945503320498</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>0.74570903367390606</v>
+      <c r="D26" s="2">
+        <v>-1.6595794982705561</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>-0.93740782464399075</v>
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.33522217402163662</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.97867957535534345</v>
+        <v>4</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>-1.1051705893803421</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>0.96774082522675453</v>
+      <c r="D27" s="2">
+        <v>-0.79793638506676368</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>-0.93163416353674222</v>
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.208557013937672</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.90350454652695955</v>
+      <c r="J27" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>-1.3828429011380641</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28">
-        <v>0.78444439324924753</v>
+      <c r="D28" s="2">
+        <v>-1.3149201329937861</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>-0.90611120258594369</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.97717241882794426</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1.0445595348258543</v>
+      <c r="J28" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>-1.121806782748787</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>1.1268798429138336</v>
+      <c r="D29" s="2">
+        <v>-1.4158148986830861</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29">
-        <v>-1.1656755422822727</v>
+      <c r="G29" s="2">
+        <v>0.81975034384330514</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.97158115984703564</v>
+      <c r="J29" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>-0.84352279856609802</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D30">
-        <v>0.62910052290634066</v>
+      <c r="D30" s="2">
+        <v>-0.78089911393284839</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>-0.89681912620553561</v>
+      <c r="G30" s="2">
+        <v>1.0527330954560981</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1.139090328137871</v>
+      <c r="J30" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>-0.97747063940772905</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>0.97200869438797977</v>
+      <c r="D31" s="2">
+        <v>-0.80542642594229041</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G31">
-        <v>-0.94424958365594946</v>
+      <c r="G31" s="2">
+        <v>1.205941170649818</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.93521838967068049</v>
+      <c r="J31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>-1.385842589027644</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>1.1003304649306873</v>
+      <c r="D32" s="2">
+        <v>-0.92517446763644484</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32">
-        <v>-0.68753868467415913</v>
+      <c r="G32" s="2">
+        <v>1.461764561109077</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1.086352836953167</v>
+      <c r="J32" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>-0.79519257156623824</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0.86806397080470887</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.68915896812421462</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>-0.92458994076913115</v>
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.95009571438752916</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.92703179776379141</v>
+      <c r="J33" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>-0.62560204995619739</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1.0130920637934162</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-0.96700332191664884</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>-0.7547864708401022</v>
+      <c r="G34" s="2">
+        <v>0.44159158824529648</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0.99746142877903488</v>
+      <c r="J34" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>-1.3753334267972901</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D35">
-        <v>1.2389211607243</v>
+      <c r="D35" s="2">
+        <v>-0.99015257228943387</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G35">
-        <v>-0.62973765320894159</v>
+      <c r="G35" s="2">
+        <v>1.2717554786277829</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1.1021566273587471</v>
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>-2.0536396060040412</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36">
-        <v>1.2505004277423852</v>
+      <c r="D36" s="2">
+        <v>-0.99761487117254011</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>-1.1132792891742085</v>
+      <c r="G36" s="2">
+        <v>1.8472083851543091</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>-1.315645337078073</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-1.261336051066944</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.530472502879052</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>-1.8916639384973299</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-1.717315116537782</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1.158760787220982</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1266,1377 +2218,2765 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6024E517-E377-BA4C-89AC-90B4A09AC2E5}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J59"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="14.5" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>0.17345502111867361</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
         <v>-0.21020009268923445</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.17816256520613649</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>-0.45828863197167635</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.44592172244877304</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.29638724974837061</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>0.46681405243847962</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.41881916974723765</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-8.1905965670898695E-3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>7.1495353513680193E-2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.0268561423213924E-2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.25108479224655866</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>0.18418238072946469</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.21696708921037811</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.1383983883848146E-2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>0.51775353694847404</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.35971361193989271</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-0.31206359469209133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>0.27220871491893028</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.12253256532419332</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-0.17408450038291079</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>9.8988392006823744E-2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.4042026029662722</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-4.2997070407437832E-3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>-0.10395165856646926</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1.9013246974367348E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.21853440575399219</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>6.3481664784340808E-2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.15112507679005027</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.12517156094617832</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>0.24857111837265933</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.10946285600838745</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-0.2081994007313881</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>0.25501584176188175</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.7031098777870639E-2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-0.27826263617160407</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>0.22194604778773197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-7.3699410792475106E-2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.6367721934620363E-2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>0.12997886447005058</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.21213014898741633</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.18851644161308911</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>0.24452414425043401</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.22157248370789961</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-6.4045497158161879E-2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>0.30860328318411945</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.19086826479965158</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.1681355459812508</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>0.29880266885022166</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.19175922786677901</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-0.31452940564589937</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>0.18414079580605502</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.9802300163601458E-2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-0.19765017443163657</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>0.25535045977473381</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.76277943931077363</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.19380404128677498</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>0.17228038162335224</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-0.14337321464419617</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-0.15924230797091354</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>0.39832717625967717</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.18520902900125069</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-0.28471752059869715</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>0.14627314946133829</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.12706726616655217</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.14828100321641813</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>0.33912945258423122</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.10639907067671128</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-0.27227138790424021</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>0.36397821368950467</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.22413984269432063</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-0.20272606334476961</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>0.40086890844012579</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-6.2855508316280506E-2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-0.4525054346366062</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>5.1903184557572146E-2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-6.5012568452969433E-2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-7.7454993782431814E-2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>0.32934591553221892</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.4248772349089194E-2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-0.38847371645852746</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>0.31951126858506917</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.15209311376904466</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-0.40750908897727101</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>-9.9803232634403827E-2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.20029902066782768</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.18665614209270842</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>-7.5933685810536389E-3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.6763312156807828</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7.6689466218560653E-2</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>0.19824165433996832</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.19780671611307721</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-0.10643173230418057</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>0.33848613956447693</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.12139544443027361</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2">
+        <v>-0.44029122503397389</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>0.16590171496433204</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-0.34846351016584265</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-9.7053994997786219E-2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>0.23698888118120465</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.27558282243502763</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>-0.16981061742178838</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>2.0441583848732847E-2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.17751478049416392</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.12876099151424825</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>0.37448193863239787</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.26314839884050123</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-0.16823779636393255</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>0.17542551096989101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.26184632109768202</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-9.6581157906697968E-2</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>0.3001025516565381</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.11754331360192083</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-0.24806399322292094</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>0.28424647487181076</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>8.5709333372758323E-2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-0.3376832899022304</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>0.24807591872519197</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-7.1745783785094552E-2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-2.9564487541541951E-2</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>-9.9701649709764695E-2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-0.34912581597051684</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.28806715096040136</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>-0.16166508959090642</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-0.21988160117872724</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.38608263877912208</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>0.1920938493625659</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6.5655461135381898E-2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-0.26025134262304306</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>0.37917090716298496</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.31687242682062688</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-0.20279561243952315</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>0.27126070211905429</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.29353782030083853</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.0131768231993021E-2</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>0.24597127512182304</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.25279003163127811</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-4.1663675963668823E-2</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>0.15926039186001795</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.13209432652369912</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-0.1802235503168319</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>0.50599419185619077</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.33673593802349266</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-0.32872615397140947</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>0.32556681922700292</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.12227856786100855</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-0.24628237535500119</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>0.27578028974443036</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.21472846364292053</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>-0.16741104311594768</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>0.40696356986955529</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.33770343185494056</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-0.11892020368775036</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>0.24329037283129828</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.15111609639977175</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
+        <v>-0.16058584704709489</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>8.6551184712665652E-2</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-0.31660460593014506</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.11284920142177413</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>0.4193535505945114</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.22907986974620886</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="2">
+        <v>-0.29775708321338357</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>0.32055867162407026</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.32634193043401005</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="2">
+        <v>-0.16352300439432099</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>0.30859632313361374</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2">
+        <v>6.4735627642036775E-2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2">
+        <v>-0.28590355594627681</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>0.24973684015260744</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-0.2923899577113982</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-0.76984427249278298</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>0.44867011935084022</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.23930475735818035</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-0.13431570875634691</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3D5C76-7AA1-3D48-A0B3-9FB80B93A4B0}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>-0.88147125359344591</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>0.41881916974723765</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.61398440876436167</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>-8.1905965670898695E-3</v>
+      <c r="G4" s="2">
+        <v>-0.36031753824166057</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>7.1495353513680193E-2</v>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>-0.80970375726120025</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>8.0268561423213924E-2</v>
+      <c r="D5" s="2">
+        <v>-0.55709234960507081</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>0.25108479224655866</v>
+      <c r="G5" s="2">
+        <v>-0.34633173254642757</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0.18418238072946469</v>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>-0.79462702734894508</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0.21696708921037811</v>
+      <c r="D6" s="2">
+        <v>-0.1427078000561561</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>7.1383983883848146E-2</v>
+      <c r="G6" s="2">
+        <v>0.27166743401401999</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.51775353694847404</v>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>-0.17489531246283091</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>0.35971361193989271</v>
+      <c r="D7" s="2">
+        <v>-0.39026307351669431</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>-0.31206359469209133</v>
+      <c r="G7" s="2">
+        <v>-0.36371139093462562</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0.27220871491893028</v>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>-0.56147011509686329</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>0.12253256532419332</v>
+      <c r="D8" s="2">
+        <v>-6.134028046790526E-2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>-0.17408450038291079</v>
+      <c r="G8" s="2">
+        <v>-0.33810681466021802</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9.8988392006823744E-2</v>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>-0.68923783043280706</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>-0.4042026029662722</v>
+      <c r="D9" s="2">
+        <v>-0.74028170858181486</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9">
-        <v>-4.2997070407437832E-3</v>
+      <c r="G9" s="2">
+        <v>-0.51439092173752721</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>-0.10395165856646926</v>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>-0.79500486196315734</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>-1.9013246974367348E-2</v>
+      <c r="D10" s="2">
+        <v>-0.71643501900108142</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10">
-        <v>0.21853440575399219</v>
+      <c r="G10" s="2">
+        <v>-0.65014350288528677</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>6.3481664784340808E-2</v>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>-0.90745842741192628</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>-0.15112507679005027</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.7054758637957933</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11">
-        <v>-0.12517156094617832</v>
+      <c r="G11" s="2">
+        <v>-0.24370365883885861</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.24857111837265933</v>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>5.9426317104669509E-2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>0.10946285600838745</v>
+      <c r="D12" s="2">
+        <v>-6.1406524373487113E-2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G12">
-        <v>-0.2081994007313881</v>
+      <c r="G12" s="2">
+        <v>-0.63488428841764843</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0.25501584176188175</v>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>-0.56477203253420871</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>9.7031098777870639E-2</v>
+      <c r="D13" s="2">
+        <v>-0.48421676021255838</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>-0.27826263617160407</v>
+      <c r="G13" s="2">
+        <v>-0.63784395852620845</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0.22194604778773197</v>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>-0.80819955114419817</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>-7.3699410792475106E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-0.35224478887593769</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>5.6367721934620363E-2</v>
+      <c r="G14" s="2">
+        <v>-0.33887060867841762</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.12997886447005058</v>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>-9.1259719932218708E-2</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>0.21213014898741633</v>
+      <c r="D15" s="2">
+        <v>-0.46191068403488672</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15">
-        <v>0.18851644161308911</v>
+      <c r="G15" s="2">
+        <v>-0.8383296172114022</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.24452414425043401</v>
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>-0.8161588385305919</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>0.22157248370789961</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-0.24408143454295339</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>-6.4045497158161879E-2</v>
+      <c r="G16" s="2">
+        <v>-0.53028449984774728</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.30860328318411945</v>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>-0.1001779033975464</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>0.19086826479965158</v>
+      <c r="D17" s="2">
+        <v>-0.23469740256742069</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>-0.1681355459812508</v>
+      <c r="G17" s="2">
+        <v>-0.82199971340677658</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>0.29880266885022166</v>
+        <v>3</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>-0.5292843931957214</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>0.19175922786677901</v>
+      <c r="D18" s="2">
+        <v>-0.79992904615253235</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G18">
-        <v>-0.31452940564589937</v>
+      <c r="G18" s="2">
+        <v>-0.5581856719018421</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>0.18414079580605502</v>
+      <c r="J18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>-0.45393831870676787</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>7.9802300163601458E-2</v>
+      <c r="D19" s="2">
+        <v>-0.188493537863754</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>-0.19765017443163657</v>
+      <c r="G19" s="2">
+        <v>9.0374924271790613E-2</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.25535045977473381</v>
+      <c r="J19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>-0.90092437604946407</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <v>0.76277943931077363</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-0.37814064618455911</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>0.19380404128677498</v>
+      <c r="G20" s="2">
+        <v>-5.7768610742045701E-2</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>0.17228038162335224</v>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>-0.86108434729363981</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>-0.14337321464419617</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-0.26747321732132778</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21">
-        <v>-0.15924230797091354</v>
+      <c r="G21" s="2">
+        <v>0.14675120621960999</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>0.39832717625967717</v>
+      <c r="J21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>-0.42312452826755131</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>0.18520902900125069</v>
+      <c r="D22" s="2">
+        <v>-0.44827497826360962</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G22">
-        <v>-0.28471752059869715</v>
+      <c r="G22" s="2">
+        <v>-0.86353171260863393</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>0.14627314946133829</v>
+        <v>3</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>-0.63643310811599862</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>0.12706726616655217</v>
+      <c r="D23" s="2">
+        <v>-0.28056724760276153</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G23">
-        <v>0.14828100321641813</v>
+      <c r="G23" s="2">
+        <v>-0.30137796618597851</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.33912945258423122</v>
+      <c r="J23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>-0.65813263350175855</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>0.10639907067671128</v>
+      <c r="D24" s="2">
+        <v>-1.179353862008458</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>-0.27227138790424021</v>
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1.2446748850118601</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>0.36397821368950467</v>
+        <v>3</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>-0.1266199254099683</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>0.22413984269432063</v>
+      <c r="D25" s="2">
+        <v>-0.53344672935381798</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G25">
-        <v>-0.20272606334476961</v>
+      <c r="G25" s="2">
+        <v>-0.83734638242217529</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.40086890844012579</v>
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>-0.45199415898687362</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>-6.2855508316280506E-2</v>
+      <c r="D26" s="2">
+        <v>-0.26010363090732458</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G26">
-        <v>-0.4525054346366062</v>
+      <c r="G26" s="2">
+        <v>-0.63893928095099239</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>5.1903184557572146E-2</v>
+      <c r="J26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>-5.9614086922228172E-2</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27">
-        <v>-6.5012568452969433E-2</v>
+      <c r="D27" s="2">
+        <v>-1.7229018871091071</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>-7.7454993782431814E-2</v>
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-2.768505932204993</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.32934591553221892</v>
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>-0.47375221589288119</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>4.4248772349089194E-2</v>
+      <c r="D28" s="2">
+        <v>-0.23951171761225221</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G28">
-        <v>-0.38847371645852746</v>
+      <c r="G28" s="2">
+        <v>-0.43049102851382581</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.31951126858506917</v>
+      <c r="J28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>-0.21439678601196541</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>0.15209311376904466</v>
+      <c r="D29" s="2">
+        <v>-0.46521705742230218</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>-0.40750908897727101</v>
+      <c r="G29" s="2">
+        <v>-0.70794561939849732</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>-9.9803232634403827E-2</v>
+      <c r="J29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>-0.53595089093218651</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>-0.20029902066782768</v>
+      <c r="D30" s="2">
+        <v>-0.71385563996530366</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G30">
-        <v>0.18665614209270842</v>
+      <c r="G30" s="2">
+        <v>-0.68753337891261068</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>-7.5933685810536389E-3</v>
+      <c r="J30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>-0.61529762116132047</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>-0.6763312156807828</v>
+      <c r="D31" s="2">
+        <v>-0.55790798368648897</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G31">
-        <v>7.6689466218560653E-2</v>
+      <c r="G31" s="2">
+        <v>-0.64228747888390259</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.19824165433996832</v>
+      <c r="J31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>-0.92539537280084905</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>0.19780671611307721</v>
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.95591128731272235</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>-0.10643173230418057</v>
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-0.6706994005565291</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.33848613956447693</v>
+      <c r="J32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>-0.42828400699413899</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>0.12139544443027361</v>
+      <c r="D33" s="2">
+        <v>-0.36029858076657978</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33">
-        <v>-0.44029122503397389</v>
+      <c r="G33" s="2">
+        <v>-0.27993894686799448</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>0.16590171496433204</v>
+      <c r="J33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>-0.48436574388408482</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>-0.34846351016584265</v>
+      <c r="D34" s="2">
+        <v>3.9204918351702617E-2</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G34">
-        <v>-9.7053994997786219E-2</v>
+      <c r="G34" s="2">
+        <v>-0.27450434652062988</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>0.23698888118120465</v>
+      <c r="J34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>-0.57086187248689391</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>0.27558282243502763</v>
+      <c r="D35" s="2">
+        <v>-0.28441124780211491</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G35">
-        <v>-0.16981061742178838</v>
+      <c r="G35" s="2">
+        <v>-0.2113693310034124</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2.0441583848732847E-2</v>
+      <c r="J35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>-0.68264045099687687</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>0.17751478049416392</v>
+      <c r="D36" s="2">
+        <v>-0.2481599660170199</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G36">
-        <v>0.12876099151424825</v>
+      <c r="G36" s="2">
+        <v>-0.25263681654343412</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>0.37448193863239787</v>
+      <c r="J36" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>-0.47236110267298598</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>0.26314839884050123</v>
+      <c r="D37" s="2">
+        <v>-0.46379117431009448</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G37">
-        <v>-0.16823779636393255</v>
+      <c r="G37" s="2">
+        <v>-0.41071991297729937</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>0.17542551096989101</v>
+      <c r="J37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>-0.80019297163555458</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>0.26184632109768202</v>
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-0.20812880060428829</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G38">
-        <v>-9.6581157906697968E-2</v>
+      <c r="G38" s="2">
+        <v>0.25127866472844662</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>0.3001025516565381</v>
+      <c r="J38" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>-0.4992384829764886</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>0.11754331360192083</v>
+      <c r="D39" s="2">
+        <v>-0.53257054618421384</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G39">
-        <v>-0.24806399322292094</v>
+      <c r="G39" s="2">
+        <v>-0.51572802298218867</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>0.28424647487181076</v>
+      <c r="J39" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>-0.58029591671930369</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40">
-        <v>8.5709333372758323E-2</v>
+      <c r="D40" s="2">
+        <v>4.2177906717233791E-3</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G40">
-        <v>-0.3376832899022304</v>
+      <c r="G40" s="2">
+        <v>-0.1223752629895254</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>0.24807591872519197</v>
+      <c r="J40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>-0.77714946004859209</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41">
-        <v>-7.1745783785094552E-2</v>
+      <c r="D41" s="2">
+        <v>-0.57430498937033592</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>-2.9564487541541951E-2</v>
+      <c r="G41" s="2">
+        <v>-0.3378271312449162</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>-9.9701649709764695E-2</v>
+      <c r="J41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>-0.5718846965960025</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>-0.34912581597051684</v>
+      <c r="D42" s="2">
+        <v>-0.1136067492932739</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G42">
-        <v>0.28806715096040136</v>
+      <c r="G42" s="2">
+        <v>-0.10153262138305461</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>-0.16166508959090642</v>
+      <c r="J42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>-0.244091342361272</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>-0.21988160117872724</v>
+      <c r="D43" s="2">
+        <v>-0.2790741787404793</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43">
-        <v>0.38608263877912208</v>
+      <c r="G43" s="2">
+        <v>-0.41105798445961123</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>0.1920938493625659</v>
+      <c r="J43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>-0.56165535955288282</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>6.5655461135381898E-2</v>
+      <c r="D44" s="2">
+        <v>-0.3648648283273333</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G44">
-        <v>-0.26025134262304306</v>
+      <c r="G44" s="2">
+        <v>-0.3867264396301951</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>0.37917090716298496</v>
+      <c r="J44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>-0.80733896366573221</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>0.31687242682062688</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-0.14143507525910559</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G45">
-        <v>-0.20279561243952315</v>
+      <c r="G45" s="2">
+        <v>7.6077943747484111E-2</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>0.27126070211905429</v>
+      <c r="J45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>-0.71380730068623288</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>0.29353782030083853</v>
+      <c r="D46" s="2">
+        <v>-0.37512413898675989</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G46">
-        <v>1.0131768231993021E-2</v>
+      <c r="G46" s="2">
+        <v>-0.28591493220518199</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>0.24597127512182304</v>
+      <c r="J46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>-0.75716629769420729</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>0.25279003163127811</v>
+      <c r="D47" s="2">
+        <v>-0.51630315110558</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G47">
-        <v>-4.1663675963668823E-2</v>
+      <c r="G47" s="2">
+        <v>-0.26341277823994902</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>0.15926039186001795</v>
+      <c r="J47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>-0.17292599797138081</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>0.13209432652369912</v>
+      <c r="D48" s="2">
+        <v>-0.51768848287503944</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>-0.1802235503168319</v>
+      <c r="G48" s="2">
+        <v>-0.9066051069782689</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>0.50599419185619077</v>
+        <v>3</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>-0.69930572030483695</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>0.33673593802349266</v>
+      <c r="D49" s="2">
+        <v>-0.205469080168727</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>-0.32872615397140947</v>
+      <c r="G49" s="2">
+        <v>-8.7110119380196555E-2</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>0.32556681922700292</v>
+      <c r="J49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>-1.2694065738128</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>0.12227856786100855</v>
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-0.76982567471198948</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G50">
-        <v>-0.24628237535500119</v>
+      <c r="G50" s="2">
+        <v>-3.9145234720854849E-2</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>0.27578028974443036</v>
+      <c r="J50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>-0.59449962438029202</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>0.21472846364292053</v>
+      <c r="D51" s="2">
+        <v>-0.55282779203293853</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G51">
-        <v>-0.16741104311594768</v>
+      <c r="G51" s="2">
+        <v>-0.43485875231791649</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>0.40696356986955529</v>
+      <c r="J51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>-0.21443298387097851</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D52">
-        <v>0.33770343185494056</v>
+      <c r="D52" s="2">
+        <v>-6.4216131883647345E-2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G52">
-        <v>-0.11892020368775036</v>
+      <c r="G52" s="2">
+        <v>-0.35756602641351293</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>0.24329037283129828</v>
+      <c r="J52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>-0.68280902128170951</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D53">
-        <v>0.15111609639977175</v>
+      <c r="D53" s="2">
+        <v>-0.43243262607242972</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G53">
-        <v>-0.16058584704709489</v>
+      <c r="G53" s="2">
+        <v>-0.31677601796521371</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>8.6551184712665652E-2</v>
+      <c r="J53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>-1.0329521819272061</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>-0.31660460593014506</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-0.83053595923442469</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54">
-        <v>0.11284920142177413</v>
+        <v>3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>-0.27070520901606532</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0.4193535505945114</v>
+      <c r="J54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>-0.78244623486154097</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55">
-        <v>0.22907986974620886</v>
+      <c r="D55" s="2">
+        <v>-0.37761246352717848</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G55">
-        <v>-0.29775708321338357</v>
+      <c r="G55" s="2">
+        <v>-8.5607142308158857E-2</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.32055867162407026</v>
+      <c r="J55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>-0.32921109393540149</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D56">
-        <v>0.32634193043401005</v>
+      <c r="D56" s="2">
+        <v>-0.74196301061426895</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G56">
-        <v>-0.16352300439432099</v>
+      <c r="G56" s="2">
+        <v>-0.84269931236456463</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>0.30859632313361374</v>
+        <v>3</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>-0.57193384784075707</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D57">
-        <v>6.4735627642036775E-2</v>
+      <c r="D57" s="2">
+        <v>-0.1197202285063349</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G57">
-        <v>-0.28590355594627681</v>
+      <c r="G57" s="2">
+        <v>-0.32671078805742798</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>0.24973684015260744</v>
+      <c r="J57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>0.17109693499506909</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>-0.2923899577113982</v>
+      <c r="D58" s="2">
+        <v>1.091515803565383E-2</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G58">
-        <v>-0.76984427249278298</v>
+      <c r="G58" s="2">
+        <v>-0.37289187730071433</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>0.44867011935084022</v>
+      <c r="J58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>-0.83617566866025739</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>0.23930475735818035</v>
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-0.63470601596796961</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>-0.13431570875634691</v>
+      <c r="G59" s="2">
+        <v>-0.43124263718633621</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J59" t="s">
-        <v>4</v>
+      <c r="J59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>-0.77282288664430931</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-0.83659681412574316</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-0.71453176382434813</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>-0.50814209264860111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-0.43979477083726543</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-0.4202705972931049</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
